--- a/biology/Médecine/John_Elliotson/John_Elliotson.xlsx
+++ b/biology/Médecine/John_Elliotson/John_Elliotson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">John Elliotson, né le 29 octobre 1791 à Londres et mort le 29 juillet 1868 dans la même ville, est un médecin anglais connu pour sa pratique du magnétisme animal et de la phrénologie.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elliotson étudie la médecine à l'université d'Édimbourg de 1805 à 1810. Durant ses études, il est influencé par le philosophe Thomas Brown. De 1810 à 1821, il poursuit ses études de médecine à l'université de Cambridge. En 1831 il devient professeur à l'université de Londres et, en 1834, il devient médecin à l'hôpital universitaire de Londres.
-En raison de sa pratique du magnétisme animal, Elliotson est amené à démissionner de son poste à l'université en 1838, sous la pression du journal médical The Lancet, dont le directeur, Thomas Wakley avait été originairement favorable au magnétisme[1]. Elliotson continue néanmoins à pratiquer le magnétisme animal. De 1843 à 1856, il édite une revue, The Zoist, consacrée exclusivement à ce sujet[2]. En 1849, il fonde un hôpital destiné à la pratique du magnétisme animal.
+En raison de sa pratique du magnétisme animal, Elliotson est amené à démissionner de son poste à l'université en 1838, sous la pression du journal médical The Lancet, dont le directeur, Thomas Wakley avait été originairement favorable au magnétisme. Elliotson continue néanmoins à pratiquer le magnétisme animal. De 1843 à 1856, il édite une revue, The Zoist, consacrée exclusivement à ce sujet. En 1849, il fonde un hôpital destiné à la pratique du magnétisme animal.
 Elliotson est l'un des premiers médecins britanniques à encourager l'usage du stéthoscope.
-Il est élu membre de la Royal Society le 19 mars 1829)[3] et du Royal College of Physicians.
+Il est élu membre de la Royal Society le 19 mars 1829) et du Royal College of Physicians.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Cases of the Hydrocyanic or Prussic Acid, 1820
 (en) Lectures on Diseases of the Heart, 1830
